--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,14 +9736,10 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9751,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,10 +9780,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15171,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,10 +9736,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9747,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15171,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,10 +9736,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9747,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15171,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,14 +9736,10 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9751,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,10 +9780,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15171,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,10 +9736,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9747,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9736,14 +9736,10 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9751,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,10 +9780,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9736,10 +9736,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9747,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,11 +18627,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9736,14 +9736,10 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9751,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,10 +9780,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,11 +18627,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9736,10 +9736,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9747,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,11 +18627,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9784,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9799,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,10 +9828,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9784,10 +9784,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9784,10 +9784,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,11 +18723,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9784,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9799,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,10 +9828,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,11 +18723,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/05/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9784,10 +9784,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,11 +18675,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,11 +18723,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9784,10 +9784,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9795,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9784,14 +9784,10 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9799,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,10 +9828,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,11 +18723,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,11 +18771,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>03/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,11 +18723,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,11 +18771,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Pesquera SALMAR Limitada</t>
+          <t>EXPORTADORA BLUE SEA CHILE SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Orizon S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Orizon S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ACUÍCOLA CAICAÉN S.A.</t>
+          <t>DASHIMA SpA.</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -14403,7 +14403,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>EXPORTADORA BLUE SEA CHILE SpA</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,10 +9832,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9843,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F249" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MULTIEXPORT PACIFIC FARMS S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9832,14 +9832,10 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9847,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,10 +9876,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9880,14 +9880,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9895,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,10 +9924,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,11 +18771,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18819,11 +18819,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9880,10 +9880,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9891,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,14 +9928,10 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,11 +18771,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18819,11 +18819,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9928,10 +9928,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9939,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,14 +9976,10 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18819,11 +18819,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18852,7 +18852,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18867,11 +18867,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO ENGORDA DE SALMONES CHIDGUAPI 2</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES CHIDGUAPI 4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7360805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9928,14 +9928,10 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9943,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,10 +9972,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18819,11 +18819,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18852,7 +18852,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18867,11 +18867,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación planta elaboradora de productos congelados</t>
+          <t>Extracción y Procesamiento de Áridos, Sector La Campana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Campana Construcciones SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>70000</v>
+        <v>250</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159378291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159484745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Sector La Campana</t>
+          <t>Ampliación planta elaboradora de productos congelados</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Campana Construcciones SpA</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>70000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159484745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159378291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PMGD Falúa</t>
+          <t>PMGD Dalca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Falúa SpA</t>
+          <t>Dalca SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PMGD Dalca</t>
+          <t>PMGD Falúa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dalca SpA</t>
+          <t>Falúa SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10024,10 +10024,14 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10035,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,14 +10072,10 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10024,14 +10024,10 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10039,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,10 +10068,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10024,10 +10024,14 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10035,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,14 +10072,10 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PMGD Dalca</t>
+          <t>PMGD Falúa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dalca SpA</t>
+          <t>Falúa SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PMGD Falúa</t>
+          <t>PMGD Dalca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Falúa SpA</t>
+          <t>Dalca SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10024,14 +10024,10 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10039,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,10 +10068,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
+          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Ampliación de Producción, Centro de Engorda de Salmones, Canal Huito, Sector 1, Comuna de Calbuco, X Región, Pert Nº 211104044"</t>
+          <t>"Modificacion de proyecto de acuicultura del centro de cultivo de salmonidos Codihue. Comuna de Calbuco, Decima Region. Nº PERT 210104040".</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6557154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6503854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>ACUÍCOLA CAICAÉN S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10024,14 +10024,10 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10039,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,10 +10068,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -16803,7 +16803,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
@@ -20211,7 +20211,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ricardo Roberto Delgado Altamirano</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10072,14 +10072,10 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10087,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,10 +10116,14 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Congelados y Conservas Fitz Roy S.A.</t>
+          <t>Procesadora Aguas Claras SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Líquidos Planta Procesos Calbuco - X Región (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES del Proyecto Modificación de Planta Procesadora de Recursos Hidrobiólógicos, Calbuco (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras SpA.</t>
+          <t>Congelados y Conservas Fitz Roy S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10072,10 +10072,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,14 +10120,10 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Cristian Alfredo Soto Coli</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Cruz Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104048)</t>
+          <t>Cultivos de Salmonídeos en Punta Perhue Sur Isla Puluqui Comuna de Calbuco X Región ( Solicitud N°200104046)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Cristian Alfredo Soto Coli</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10072,10 +10072,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,14 +10120,10 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,11 +18963,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10072,14 +10072,10 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10087,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,10 +10116,14 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,11 +18963,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10072,10 +10072,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10083,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,14 +10120,10 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,11 +18963,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10120,14 +10120,10 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10135,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,10 +10164,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19059,11 +19059,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10120,10 +10120,14 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10131,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,14 +10168,10 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19059,11 +19059,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Calbuco.xlsx
+++ b/data/Calbuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4500</v>
+        <v>44</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUNTA LLANCACHEO, CODIGO DE CENTRO 102136, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro al sur de Punta Cachihue, Isla Butachauques, Código de centro 102505, X región.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR POLLOLLO, CODIGO DE CENTRO 102017, ISLA PULUQUI, X REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>44</v>
+        <v>4500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128432521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10120,14 +10120,10 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10135,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Portuaria Cabo Froward S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,10 +10164,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de Combustibles Pureo Planta Pureo</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>AMPLIACION TERMINAL MARITIMO MUELLE SAN JOSE, CALBUCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Portuaria Cabo Froward S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2294206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
+          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Francisco Javier Miranda Marín</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Centro Piscicola Isla Queullin ( Solicitud N°99104024)</t>
+          <t>Cultivo de Mytilidos y Ostreídos en Punta La Chechil Isla Poluqui Comuna de Calbuco Décima Región ( Solicitud N°200104049)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Francisco Javier Miranda Marín</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
+          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Luis Antonio Marín Zuñiga</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura San José Yaco Bajo Comuna de Calbuco ( Solicitud N°97104001)</t>
+          <t>Centro de Cultivo de Mytilidos Canal Chidhuapi ( Solicitud N°200104031)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Luis Antonio Marín Zuñiga</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17091,11 +17091,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Luis Alvarado Molina</t>
+          <t>JUAN MARCELO MANSILLA DIAZ</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
+          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17139,11 +17139,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Isais Segundo Mansilla Sánchez</t>
+          <t>José Abel Soto Vázquez</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Ulises Humberto Paulsen Quiñones</t>
+          <t>Angel Mardonio Morales Ruiz</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla en el Sector del Estero Puluqui Isla Puluqui Comuna de Calbuco ( Solicitud N°99104008)</t>
+          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>JUAN MARCELO MANSILLA DIAZ</t>
+          <t>José Rigoberto Kappas</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito (Mytilus Chilensis) y Ostra Chilena (Ostrea Chilensis) en el Sector de Estero Huito Comuna de Calbuco N° de Solicitud 98104030</t>
+          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>José Abel Soto Vázquez</t>
+          <t>Manuel Segundo Huenante Quimchamán</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal Caicaen- Sector San José (Solicitud N°97104071)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Angel Mardonio Morales Ruiz</t>
+          <t>José Miguel Paredes Valladolid</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Estero Huito Comuna de Calbuco (97104068)</t>
+          <t>Cultivo de Mitílidos Caicaén (Sol. N°99104012)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>José Rigoberto Kappas</t>
+          <t>Ulises Humberto Paulsen Quiñones</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Peñasmo - Canal San Antonio Comuna de Calbuco (98104013)</t>
+          <t>Solicitud de Concesión de Acuicultora Estero Huito Solicitud N° 97104070</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Manuel Segundo Huenante Quimchamán</t>
+          <t>Luis Alvarado Molina</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco(N°97104089)</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidguapi (Solicitud N°98104015)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>José Miguel Paredes Valladolid</t>
+          <t>Isais Segundo Mansilla Sánchez</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>José Erasmo Mansilla Soto</t>
+          <t>María Marlene Paredes Mayorga</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Sector Punta Blanca Isla Chidhuapi Comuna de Calbuco (Solicitud N° 97104086)</t>
+          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19011,11 +19011,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>María Marlene Paredes Mayorga</t>
+          <t>Gloria de Lourdes Soto Vargas</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Canal San Antonio Comuna de Calbuco</t>
+          <t>Solicitud de Concesión de Acuicultura Isla Chidhuapi Comuna de Calbuco</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19059,11 +19059,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Gloria de Lourdes Soto Vargas</t>
+          <t>José Erasmo Mansilla Soto</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
